--- a/Column_Descriptions.xlsx
+++ b/Column_Descriptions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwert\OneDrive\Masaüstü\DATA SCIENCE\PROJECTS\PROJECT- FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwert\OneDrive\Masaüstü\DATA SCIENCE\PROJECTS\PROJECT- FINAL\ML_Project_Group_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015EF20A-739D-463B-9F8F-FBD4551D5685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6FF96F-AED6-4C9F-ADC3-DB0C7E78221D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -166,6 +166,183 @@
   </si>
   <si>
     <t>Categorical Values</t>
+  </si>
+  <si>
+    <t>İşlem kayıt numarası olarak kabul edilebilir.</t>
+  </si>
+  <si>
+    <t>kiralama için gecelik fiyat (TARGET)</t>
+  </si>
+  <si>
+    <t>Kiralanacak emlak tipini gösteriyor.(35 çeşit var)</t>
+  </si>
+  <si>
+    <t>Kiralnacak oda tipini gösteriyor.Kiralanan alan türüde denilebilir.</t>
+  </si>
+  <si>
+    <t>Bir konuğun konforlu bir konaklama geçirmesi için beklediği temel öğeler.</t>
+  </si>
+  <si>
+    <t>kiralamanın ağırlayabileceği misafir sayısı</t>
+  </si>
+  <si>
+    <t>Eksiksiz bir banyo, tam olarak 1 lavabo, 1 küvet, 1 duş ve 1 tuvalet içeren bir banyodur. Airbnb 1.5 banyo. 1,5 banyo, bir tam banyo ve yarım banyo anlamına gelir. Yarım banyo sadece bir tuvalet ve lavabodur. İçinde duş veya küvet yok, bu nedenle 1,5 banyolu bir evde bir tam banyo ve yarım banyo var.</t>
+  </si>
+  <si>
+    <t>konaklama biriminde bulunan yatak tipini ifade eder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">İptal Politikaları
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>Flexible:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t xml:space="preserve"> Sınırlı bir süre içinde tam para iadesi (genellikle girişten 24 saat önce)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>Moderate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t xml:space="preserve">: Sınırlı bir süre içinde tam geri ödeme (genellikle girişten 5 gün önce)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>Strict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t xml:space="preserve">: Rezervasyonun 48 saat içinde iptal edilmesi durumunda tam para iadesi
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>Super Strict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>: Girişten 30 ila 60 gün öncesine kadar %50 para iadesi (özel durumlar için geçerlidir ve yalnızca davetiye ile yapılır)</t>
+    </r>
+  </si>
+  <si>
+    <t>Kaldığınız alanın temizliği için tek seferlik bir ücretin olup olmadığı.</t>
+  </si>
+  <si>
+    <t>Airbnb lerin bulunduğu şehirler</t>
+  </si>
+  <si>
+    <t>Genellikle odanın özellikleri, olanakları, konumu ve konukların bilmesi gereken özel hususlar veya kurallar dahil olmak üzere alanın ayrıntılı bir tanımını</t>
+  </si>
+  <si>
+    <t>bir konuğun belirli bir tesiste kaldıktan sonra bıraktığı ilk geri bildirim tarihi. Kaydın misafirler üzerindeki ilk izlenimi ve ev sahibinin Airbnb ev sahipliği yolculuğunun başlangıcındaki performansı hakkında değerli bilgiler sunabilir.</t>
+  </si>
+  <si>
+    <t>ev sahibinin profil resminin olup olmadığı</t>
+  </si>
+  <si>
+    <t>ev sahibinin kimliğinin onaylanıp onaylanmadığı</t>
+  </si>
+  <si>
+    <t>ev sahibine gönderilen mesajların belirli bir zaman dilimi içinde yanıtlama yüzdesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bir ev sahibinin Airbnb'ye katıldığı ve mülklerini platformda kullanmaya başladığı tarihi </t>
+  </si>
+  <si>
+    <t>Bir konuğun o tesisteki kalışları hakkında en son geri bildirim bıraktığı tarihi gösterir. Bu inceleme, kaydın kalitesi ve ev sahibinin belirtilen tarihe kadarki performansı hakkında bilgi sağlar.</t>
+  </si>
+  <si>
+    <t>Enlem değeri</t>
+  </si>
+  <si>
+    <t>Boylam değeri</t>
+  </si>
+  <si>
+    <t>Ev sahiplerinin misafirleri çekmek için kullandıkları açıklayıcı veya akılda kalıcı bir başlıktır</t>
+  </si>
+  <si>
+    <t>bir mülkün bulunduğu belirli bölge veya semt.</t>
+  </si>
+  <si>
+    <t>tesiste kalan konuklar tarafından gönderilen toplam yorum sayısını ifade eder.</t>
+  </si>
+  <si>
+    <t>hizmetin kullanıcılardan aldığı toplam puan veya inceleme sayısını ifade eder. Söz konusu öğeyi deneyimlemiş veya değerlendirmiş kişiler tarafından sağlanan geri bildirim veya görüşlerin miktarını gösterir.</t>
+  </si>
+  <si>
+    <t>bir kaydın küçük boyutlu bir resme işaret eden bir web bağlantı adresi.</t>
+  </si>
+  <si>
+    <t>posta kodu</t>
+  </si>
+  <si>
+    <t>misafirler için mevcut olan ayrı yatak odalarının sayısını ifade eder.</t>
+  </si>
+  <si>
+    <t>kiralamaya dahil olan yatak sayısı</t>
+  </si>
+  <si>
+    <t>konukların ev sahibinin onayını beklemek zorunda kalmadan kayıt rezervasyonu yapmasına olanak tanıyan bir özelliği ifade eder.</t>
   </si>
 </sst>
 </file>
@@ -231,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -251,6 +428,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,7 +723,7 @@
     <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.5546875" customWidth="1"/>
-    <col min="4" max="4" width="52.21875" customWidth="1"/>
+    <col min="4" max="4" width="86.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -568,7 +748,9 @@
         <v>30</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -578,7 +760,9 @@
         <v>31</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -590,7 +774,9 @@
       <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -602,7 +788,9 @@
       <c r="C5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -612,7 +800,9 @@
         <v>32</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -622,9 +812,11 @@
         <v>30</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -632,7 +824,9 @@
         <v>31</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -644,9 +838,11 @@
       <c r="C9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -656,7 +852,9 @@
       <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -666,7 +864,9 @@
         <v>33</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -678,9 +878,11 @@
       <c r="C12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -688,9 +890,11 @@
         <v>32</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -698,7 +902,9 @@
         <v>32</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -710,7 +916,9 @@
       <c r="C15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -722,7 +930,9 @@
       <c r="C16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -732,7 +942,9 @@
         <v>32</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -742,9 +954,11 @@
         <v>32</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -754,9 +968,11 @@
       <c r="C19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -764,7 +980,9 @@
         <v>32</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -774,7 +992,9 @@
         <v>31</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -784,7 +1004,9 @@
         <v>31</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -794,7 +1016,9 @@
         <v>32</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -804,7 +1028,9 @@
         <v>32</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -814,9 +1040,11 @@
         <v>30</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -824,7 +1052,9 @@
         <v>31</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -834,7 +1064,9 @@
         <v>32</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -844,7 +1076,9 @@
         <v>32</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -854,7 +1088,9 @@
         <v>31</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -864,7 +1100,9 @@
         <v>31</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
